--- a/MyTeam/Content/templates/OutPoolReportT.xlsx
+++ b/MyTeam/Content/templates/OutPoolReportT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\zhoumeng\Documents\visual studio 2013\Projects\MyRpt\MyRpt\Content\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS Projects\MyTeam\MyTeam\Content\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -157,34 +157,6 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>研发团队（联系人/联系电话）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>业务部门（测试人/联系电话）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>需求类型</t>
     </r>
   </si>
@@ -229,6 +201,14 @@
       </rPr>
       <t>备注</t>
     </r>
+  </si>
+  <si>
+    <t>研发联系人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务测试人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -325,7 +305,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -340,6 +320,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -624,7 +607,7 @@
   <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -640,8 +623,9 @@
     <col min="9" max="9" width="10" style="3" customWidth="1"/>
     <col min="10" max="10" width="11.5703125" style="3" customWidth="1"/>
     <col min="11" max="11" width="11.140625" style="3" customWidth="1"/>
-    <col min="12" max="13" width="12.5703125" style="3" customWidth="1"/>
-    <col min="14" max="14" width="11.85546875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="3" customWidth="1"/>
     <col min="15" max="15" width="15.140625" style="3" customWidth="1"/>
     <col min="16" max="16384" width="9.140625" style="4"/>
   </cols>
@@ -674,23 +658,23 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/MyTeam/Content/templates/OutPoolReportT.xlsx
+++ b/MyTeam/Content/templates/OutPoolReportT.xlsx
@@ -143,20 +143,6 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>研发评估工作量（人天）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>需求类型</t>
     </r>
   </si>
@@ -208,13 +194,17 @@
   </si>
   <si>
     <t>业务测试人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求规模</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -342,7 +332,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -630,7 +620,7 @@
     <col min="16" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -655,26 +645,26 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
